--- a/AWS_FTPS.xlsx
+++ b/AWS_FTPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sawadayuki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4EAB3E-4A4A-46AC-925C-56A4D69361D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883F4CD5-AC75-45B5-A627-1F6312401D4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="300" windowWidth="22260" windowHeight="13690" activeTab="6" xr2:uid="{410ECF7E-E0A9-4CBE-8F23-263A4F3C9382}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>https://dev.classmethod.jp/articles/aws-transfer-for-ftp-and-ftps-in-addition-to-existing-sftp/</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +130,28 @@
   </si>
   <si>
     <t>VPC ピアリング接続の作成と承認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10.0.0.0/16に、mysql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>172.31.0.0/16に、windowsインスタンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>windowsインスタンスから、mysqlに、接続</t>
+    <rPh sb="23" eb="25">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルーティング追加</t>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -597,6 +619,226 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139535</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>490597</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>50382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBD4CA7-6E3F-4B7D-A7B1-67FA93BC821D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="717550" y="5168735"/>
+          <a:ext cx="6377047" cy="1739647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>89790</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>484511</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160831</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10998BF5-318B-4B01-B80E-944FA381286F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10656190" y="6673850"/>
+          <a:ext cx="4357121" cy="3773981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>473912</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>30805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF29ECE-0B7E-4618-A027-F213E194DE43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10528300" y="2838500"/>
+          <a:ext cx="7776412" cy="3135905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>68653</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>582570</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>221352</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82DD38F-4F98-4691-9B6F-6813D25E89DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="729053" y="7448550"/>
+          <a:ext cx="5136717" cy="2831202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>136144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>208418</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>126186</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31F30C82-A1CD-44FF-84C1-55C29D4CA116}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6000749" y="7451344"/>
+          <a:ext cx="4113669" cy="2961842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1134,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9658C3-9214-4918-AD07-A0D0C135A1D7}">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1150,6 +1392,24 @@
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="L29" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
